--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3342,11 +3342,5391 @@
           <t>123100401</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>2025-08-31 13:28:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:27:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:27:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:31:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:32:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:32:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:33:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:33:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:34:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:34:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:35:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:39:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:39:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:43:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:44:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:45:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:50:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>cpb</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>123100401</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:51:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>SuperStore</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>#36259</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>2025-08-31 14:52:11</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1833"/>
+  <dimension ref="A1:E1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31536,11 +31536,2680 @@
           <t>#6793</t>
         </is>
       </c>
-      <c r="C1833" t="inlineStr"/>
-      <c r="D1833" t="inlineStr"/>
       <c r="E1833" t="inlineStr">
         <is>
           <t>2025-08-31 17:56:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>2025-09-03 19:27:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:27:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:49:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>2025-09-04 19:50:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:06:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:07:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Superstore1</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr"/>
+      <c r="D1990" t="inlineStr"/>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>2025-09-04 20:56:15</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1990"/>
+  <dimension ref="A1:E2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34205,11 +34205,1796 @@
           <t># 40954</t>
         </is>
       </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
           <t>2025-09-04 20:56:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:48:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:49:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>2025-09-06 12:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:53:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>153801932</t>
+        </is>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>2025-09-06 13:55:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:32:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>skewed2</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>skewed2</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr"/>
+      <c r="D2095" t="inlineStr"/>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>2025-09-06 14:34:58</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2095"/>
+  <dimension ref="A1:E2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35990,11 +35990,1554 @@
           <t>10035,</t>
         </is>
       </c>
-      <c r="C2095" t="inlineStr"/>
-      <c r="D2095" t="inlineStr"/>
       <c r="E2095" t="inlineStr">
         <is>
           <t>2025-09-06 14:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>skewed2</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>S50/hr</t>
+        </is>
+      </c>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>INV-000008</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2102" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2105" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>31036</t>
+        </is>
+      </c>
+      <c r="E2107" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2109" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>22 (copy)</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2111" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>i0</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>10035,</t>
+        </is>
+      </c>
+      <c r="E2113" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:32:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>OFF-AR-3285</t>
+        </is>
+      </c>
+      <c r="E2114" t="inlineStr">
+        <is>
+          <t>2025-09-06 15:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>OFF-AR-3285</t>
+        </is>
+      </c>
+      <c r="E2116" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:00:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>Adam Shillingsburg</t>
+        </is>
+      </c>
+      <c r="E2117" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:00:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>BILLED To: Really Great Company</t>
+        </is>
+      </c>
+      <c r="E2118" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>sssssss</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>Bill To Jessica Brown</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:01:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2123" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2125" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:43:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>1153801932</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:44:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:44:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>INV-0000O8</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:44:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>1153801932</t>
+        </is>
+      </c>
+      <c r="E2139" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2142" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2145" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2146" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:47:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:58:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:58:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:58:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>2025-09-06 16:58:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:38:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2166" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2172" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2174" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2192" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2193" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2195" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr"/>
+      <c r="C2196" t="inlineStr"/>
+      <c r="D2196" t="inlineStr"/>
+      <c r="E2196" t="inlineStr">
+        <is>
+          <t>2025-09-06 18:45:20</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2196"/>
+  <dimension ref="A1:E2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37532,12 +37532,891 @@
           <t>s1</t>
         </is>
       </c>
-      <c r="B2196" t="inlineStr"/>
-      <c r="C2196" t="inlineStr"/>
-      <c r="D2196" t="inlineStr"/>
       <c r="E2196" t="inlineStr">
         <is>
           <t>2025-09-06 18:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>10035, New York City, New York; United States</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>sssss</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:18:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2199" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>1153801932</t>
+        </is>
+      </c>
+      <c r="E2200" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2202" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2205" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2207" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2209" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2210" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2211" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2212" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2213" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2214" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2215" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2216" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2217" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2218" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>sfffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>321 Pine Rd</t>
+        </is>
+      </c>
+      <c r="E2219" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2220" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>1153801932</t>
+        </is>
+      </c>
+      <c r="E2221" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2222" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2223" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2224" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2225" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2226" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2227" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2229" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2231" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2232" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2233" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2234" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2235" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2236" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2237" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2238" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2239" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:20:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2240" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2241" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>1153801932</t>
+        </is>
+      </c>
+      <c r="E2242" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2243" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2244" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2246" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2247" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2249" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2250" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2251" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2254" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2255" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2256" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2257" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2258" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2259" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2260" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2262" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr"/>
+      <c r="C2263" t="inlineStr"/>
+      <c r="D2263" t="inlineStr"/>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:26:45</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2263"/>
+  <dimension ref="A1:E2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38411,12 +38411,2850 @@
           <t>s1</t>
         </is>
       </c>
-      <c r="B2263" t="inlineStr"/>
-      <c r="C2263" t="inlineStr"/>
-      <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
           <t>2025-09-06 20:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2264" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2268" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2269" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2270" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2271" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2272" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2273" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2274" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2276" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2290" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2291" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2292" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2293" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2294" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2297" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2303" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>skewed</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>Ocvzuu 8513</t>
+        </is>
+      </c>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2314" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2316" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2323" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2326" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2327" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:36:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>skwed</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>skwed</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>ssdf21</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E2411" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>Blll T0:</t>
+        </is>
+      </c>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>skwed</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>55888800000998700</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>superstore1</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr"/>
+      <c r="D2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>2025-09-06 20:42:43</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2430"/>
+  <dimension ref="A1:E2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41250,11 +41250,1541 @@
           <t>#40954</t>
         </is>
       </c>
-      <c r="C2430" t="inlineStr"/>
-      <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr">
         <is>
           <t>2025-09-06 20:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>X "C 40954</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t># 4095</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>#4095-</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>X C 8</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr"/>
+      <c r="D2520" t="inlineStr"/>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:53:30</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2520"/>
+  <dimension ref="A1:E2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42780,11 +42780,776 @@
           <t>#40954</t>
         </is>
       </c>
-      <c r="C2520" t="inlineStr"/>
-      <c r="D2520" t="inlineStr"/>
       <c r="E2520" t="inlineStr">
         <is>
           <t>2025-09-07 14:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t># 4095</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>#4095-</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>X C 8</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>#4095.</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2560" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>#4095</t>
+        </is>
+      </c>
+      <c r="E2561" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2562" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2563" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E2564" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr"/>
+      <c r="D2565" t="inlineStr"/>
+      <c r="E2565" t="inlineStr">
+        <is>
+          <t>2025-09-07 15:00:29</t>
         </is>
       </c>
     </row>

--- a/output/invoice_records.xlsx
+++ b/output/invoice_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3887"/>
+  <dimension ref="A1:E3959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65894,11 +65894,1235 @@
           <t>FA12/2015/095206</t>
         </is>
       </c>
-      <c r="C3887" t="inlineStr"/>
-      <c r="D3887" t="inlineStr"/>
       <c r="E3887" t="inlineStr">
         <is>
           <t>2025-09-07 19:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3888">
+      <c r="A3888" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3888" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3888" t="inlineStr">
+        <is>
+          <t>2025-09-09 18:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3889">
+      <c r="A3889" t="inlineStr">
+        <is>
+          <t>bestseller1</t>
+        </is>
+      </c>
+      <c r="B3889" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3889" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3890">
+      <c r="A3890" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="B3890" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3890" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3891">
+      <c r="A3891" t="inlineStr">
+        <is>
+          <t>cbr</t>
+        </is>
+      </c>
+      <c r="B3891" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3891" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="3892">
+      <c r="A3892" t="inlineStr">
+        <is>
+          <t>beest</t>
+        </is>
+      </c>
+      <c r="B3892" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3892" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:29:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3893">
+      <c r="A3893" t="inlineStr">
+        <is>
+          <t>best2</t>
+        </is>
+      </c>
+      <c r="B3893" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3893" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:30:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3894">
+      <c r="A3894" t="inlineStr">
+        <is>
+          <t>beest</t>
+        </is>
+      </c>
+      <c r="B3894" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3894" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3895">
+      <c r="A3895" t="inlineStr">
+        <is>
+          <t>bestseller#</t>
+        </is>
+      </c>
+      <c r="B3895" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3895" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3896">
+      <c r="A3896" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="B3896" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3896" t="inlineStr">
+        <is>
+          <t>2025-09-09 19:44:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3897">
+      <c r="A3897" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3897" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3897" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:06:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3898">
+      <c r="A3898" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="B3898" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3898" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3899">
+      <c r="A3899" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3899" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3899" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3900">
+      <c r="A3900" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3900" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3900" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:29:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="3901">
+      <c r="A3901" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3901" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3901" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:29:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3902">
+      <c r="A3902" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3902" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3902" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:29:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3903">
+      <c r="A3903" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3903" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3903" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:31:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3904">
+      <c r="A3904" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3904" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3904" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:31:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3905">
+      <c r="A3905" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3905" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3905" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3906">
+      <c r="A3906" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3906" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3906" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:38:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3907">
+      <c r="A3907" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3907" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3907" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:38:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3908">
+      <c r="A3908" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3908" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3908" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:38:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3909">
+      <c r="A3909" t="inlineStr">
+        <is>
+          <t>besteller de</t>
+        </is>
+      </c>
+      <c r="B3909" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3909" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:41:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3910">
+      <c r="A3910" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3910" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3910" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3911">
+      <c r="A3911" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3911" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3911" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3912">
+      <c r="A3912" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3912" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3912" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3913">
+      <c r="A3913" t="inlineStr">
+        <is>
+          <t>besteller de</t>
+        </is>
+      </c>
+      <c r="B3913" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3913" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:45:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3914">
+      <c r="A3914" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3914" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3914" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3915">
+      <c r="A3915" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3915" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3915" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3916">
+      <c r="A3916" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3916" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3916" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3917">
+      <c r="A3917" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3917" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3917" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3918">
+      <c r="A3918" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3918" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3918" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3919">
+      <c r="A3919" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3919" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3919" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3920">
+      <c r="A3920" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3920" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3920" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3921">
+      <c r="A3921" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3921" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3921" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3922">
+      <c r="A3922" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3922" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3922" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3923">
+      <c r="A3923" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3923" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3923" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3924">
+      <c r="A3924" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3924" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3924" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3925">
+      <c r="A3925" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3925" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3925" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3926">
+      <c r="A3926" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3926" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3926" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3927">
+      <c r="A3927" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3927" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3927" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3928">
+      <c r="A3928" t="inlineStr">
+        <is>
+          <t>superstore 2</t>
+        </is>
+      </c>
+      <c r="B3928" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3928" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3929">
+      <c r="A3929" t="inlineStr">
+        <is>
+          <t>invoice1</t>
+        </is>
+      </c>
+      <c r="B3929" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E3929" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3930">
+      <c r="A3930" t="inlineStr">
+        <is>
+          <t>superstore22</t>
+        </is>
+      </c>
+      <c r="B3930" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3930" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:47:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3931">
+      <c r="A3931" t="inlineStr">
+        <is>
+          <t>superstore33</t>
+        </is>
+      </c>
+      <c r="B3931" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E3931" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3932">
+      <c r="A3932" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="B3932" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E3932" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3933">
+      <c r="A3933" t="inlineStr">
+        <is>
+          <t>superstore44</t>
+        </is>
+      </c>
+      <c r="B3933" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3933" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3934">
+      <c r="A3934" t="inlineStr">
+        <is>
+          <t>openai</t>
+        </is>
+      </c>
+      <c r="B3934" t="inlineStr">
+        <is>
+          <t>F1000876/23</t>
+        </is>
+      </c>
+      <c r="E3934" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:49:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3935">
+      <c r="A3935" t="inlineStr">
+        <is>
+          <t>besteller de</t>
+        </is>
+      </c>
+      <c r="B3935" t="inlineStr">
+        <is>
+          <t>107520369</t>
+        </is>
+      </c>
+      <c r="E3935" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3936">
+      <c r="A3936" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3936" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3936" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3937">
+      <c r="A3937" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3937" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3937" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3938">
+      <c r="A3938" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3938" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3938" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3939">
+      <c r="A3939" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3939" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3939" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3940">
+      <c r="A3940" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3940" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3940" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3941">
+      <c r="A3941" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3941" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3941" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3942">
+      <c r="A3942" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3942" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3942" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3943">
+      <c r="A3943" t="inlineStr">
+        <is>
+          <t>invoice1</t>
+        </is>
+      </c>
+      <c r="B3943" t="inlineStr">
+        <is>
+          <t>#1024</t>
+        </is>
+      </c>
+      <c r="E3943" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3944">
+      <c r="A3944" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="B3944" t="inlineStr">
+        <is>
+          <t>Invoice No. 12345</t>
+        </is>
+      </c>
+      <c r="E3944" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3945">
+      <c r="A3945" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3945" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3945" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3946">
+      <c r="A3946" t="inlineStr">
+        <is>
+          <t>superstore33</t>
+        </is>
+      </c>
+      <c r="B3946" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E3946" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3947">
+      <c r="A3947" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3947" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3947" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3948">
+      <c r="A3948" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3948" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3948" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3949">
+      <c r="A3949" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3949" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3949" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3950">
+      <c r="A3950" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3950" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3950" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3951">
+      <c r="A3951" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3951" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3951" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3952">
+      <c r="A3952" t="inlineStr">
+        <is>
+          <t>superstore22</t>
+        </is>
+      </c>
+      <c r="B3952" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3952" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3953">
+      <c r="A3953" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3953" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3953" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="3954">
+      <c r="A3954" t="inlineStr">
+        <is>
+          <t>superstore44</t>
+        </is>
+      </c>
+      <c r="B3954" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E3954" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="3955">
+      <c r="A3955" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3955" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3955" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="3956">
+      <c r="A3956" t="inlineStr">
+        <is>
+          <t>bestseller</t>
+        </is>
+      </c>
+      <c r="B3956" t="inlineStr">
+        <is>
+          <t>11611502</t>
+        </is>
+      </c>
+      <c r="E3956" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3957">
+      <c r="A3957" t="inlineStr">
+        <is>
+          <t>superstore 2</t>
+        </is>
+      </c>
+      <c r="B3957" t="inlineStr">
+        <is>
+          <t># 40954</t>
+        </is>
+      </c>
+      <c r="E3957" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3958">
+      <c r="A3958" t="inlineStr">
+        <is>
+          <t>superstore</t>
+        </is>
+      </c>
+      <c r="B3958" t="inlineStr">
+        <is>
+          <t>#40954</t>
+        </is>
+      </c>
+      <c r="E3958" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3959">
+      <c r="A3959" t="inlineStr">
+        <is>
+          <t>openai</t>
+        </is>
+      </c>
+      <c r="B3959" t="inlineStr">
+        <is>
+          <t>F1000876/23</t>
+        </is>
+      </c>
+      <c r="C3959" t="inlineStr"/>
+      <c r="D3959" t="inlineStr"/>
+      <c r="E3959" t="inlineStr">
+        <is>
+          <t>2025-09-09 20:50:59</t>
         </is>
       </c>
     </row>
